--- a/output/output_billieeilish.xlsx
+++ b/output/output_billieeilish.xlsx
@@ -393,13 +393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,10 +407,16 @@
         <v>113</v>
       </c>
       <c r="C1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D1">
+        <v>204</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -418,10 +424,16 @@
         <v>283</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1414</v>
+      </c>
+      <c r="D2">
+        <v>1697</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -429,10 +441,16 @@
         <v>112</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="D3">
+        <v>391</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -440,10 +458,16 @@
         <v>250</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1512</v>
+      </c>
+      <c r="D4">
+        <v>1762</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -451,10 +475,16 @@
         <v>340</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1238</v>
+      </c>
+      <c r="D5">
+        <v>1578</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -462,10 +492,16 @@
         <v>341</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>364</v>
+      </c>
+      <c r="D6">
+        <v>705</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -473,10 +509,16 @@
         <v>235</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>495</v>
+      </c>
+      <c r="D7">
+        <v>730</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -484,10 +526,16 @@
         <v>97</v>
       </c>
       <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>168</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -495,10 +543,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -506,10 +560,16 @@
         <v>154</v>
       </c>
       <c r="C10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="D10">
+        <v>293</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -517,10 +577,16 @@
         <v>79</v>
       </c>
       <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>116</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -528,10 +594,16 @@
         <v>132</v>
       </c>
       <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>245</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -539,10 +611,16 @@
         <v>106</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>252</v>
+      </c>
+      <c r="D13">
+        <v>358</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -550,10 +628,16 @@
         <v>135</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>224</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -561,10 +645,16 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -572,6 +662,12 @@
         <v>13</v>
       </c>
       <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
     </row>
